--- a/main/data/longest_substring.xlsx
+++ b/main/data/longest_substring.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.05505561828613</v>
+        <v>15.8388614654541</v>
       </c>
       <c r="D2" t="n">
-        <v>520</v>
+        <v>123</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.32120323181152</v>
+        <v>15.21706581115723</v>
       </c>
       <c r="D3" t="n">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.52703094482422</v>
+        <v>15.96903800964355</v>
       </c>
       <c r="D4" t="n">
-        <v>568</v>
+        <v>123</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.31507682800293</v>
+        <v>16.1430835723877</v>
       </c>
       <c r="D5" t="n">
-        <v>568</v>
+        <v>123</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.18203926086426</v>
+        <v>16.71004295349121</v>
       </c>
       <c r="D6" t="n">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/longest_substring.xlsx
+++ b/main/data/longest_substring.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.8388614654541</v>
+        <v>16.94798469543457</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.21706581115723</v>
+        <v>16.83807373046875</v>
       </c>
       <c r="D3" t="n">
         <v>123</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.96903800964355</v>
+        <v>23.12397956848145</v>
       </c>
       <c r="D4" t="n">
         <v>123</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.1430835723877</v>
+        <v>17.36974716186523</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.71004295349121</v>
+        <v>16.25609397888184</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>

--- a/main/data/longest_substring.xlsx
+++ b/main/data/longest_substring.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.94798469543457</v>
+        <v>18.87893676757812</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.83807373046875</v>
+        <v>17.11583137512207</v>
       </c>
       <c r="D3" t="n">
         <v>123</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.12397956848145</v>
+        <v>16.7238712310791</v>
       </c>
       <c r="D4" t="n">
         <v>123</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.36974716186523</v>
+        <v>17.0588493347168</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.25609397888184</v>
+        <v>16.89910888671875</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
